--- a/data/trans_bre/P14B23_2016_2023-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P14B23_2016_2023-Estudios-trans_bre.xlsx
@@ -592,13 +592,13 @@
         <v>6.053834353549113</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>4.809065647945602</v>
+        <v>4.809065647945604</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>2.229338735350806</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.7606001225296918</v>
+        <v>0.760600122529692</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.962801616962474</v>
+        <v>3.871339140490235</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.318200142263475</v>
+        <v>1.732724322014436</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>1.029816675618352</v>
+        <v>1.029203126037278</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.2626064175831292</v>
+        <v>0.1651532989993622</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.26778125743094</v>
+        <v>8.426118352484986</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.33427918883946</v>
+        <v>7.259459462945362</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>4.296296172508254</v>
+        <v>4.566304199670801</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1.484873199390248</v>
+        <v>1.455341311869537</v>
       </c>
     </row>
     <row r="7">
@@ -662,7 +662,7 @@
         <v>1.678507996976487</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.7818287169389531</v>
+        <v>0.7818287169389532</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.016587327206196</v>
+        <v>1.043713481839907</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.158456738261452</v>
+        <v>0.992933026333146</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.6135149756634865</v>
+        <v>0.6416193943548348</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.3469287218406115</v>
+        <v>0.2622831889430489</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.875196308120018</v>
+        <v>2.949687902544486</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.321025673758533</v>
+        <v>3.319977476536609</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>3.404868365294085</v>
+        <v>3.367132663309377</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.468491177435351</v>
+        <v>1.444855073462158</v>
       </c>
     </row>
     <row r="10">
@@ -720,13 +720,13 @@
         <v>0.7348067009546017</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.2420492620398767</v>
+        <v>0.2420492620398763</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>2.08482146562633</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>0.09511556106308609</v>
+        <v>0.09511556106308595</v>
       </c>
     </row>
     <row r="11">
@@ -737,14 +737,14 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.189373314481289</v>
+        <v>-0.1768995763343654</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.860167588999558</v>
+        <v>-1.655177571456827</v>
       </c>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="n">
-        <v>-0.5036946788149426</v>
+        <v>-0.4424128716472098</v>
       </c>
     </row>
     <row r="12">
@@ -755,14 +755,14 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.95985718304504</v>
+        <v>2.115338722213165</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.801378626299782</v>
+        <v>1.918123081747615</v>
       </c>
       <c r="E12" s="6" t="inlineStr"/>
       <c r="F12" s="6" t="n">
-        <v>1.139466362789908</v>
+        <v>1.244425469848594</v>
       </c>
     </row>
     <row r="13">
@@ -780,13 +780,13 @@
         <v>3.011616184225211</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>2.594494452371328</v>
+        <v>2.59449445237133</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>2.187270634923212</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.7757050281489168</v>
+        <v>0.7757050281489174</v>
       </c>
     </row>
     <row r="14">
@@ -797,16 +797,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.278922972077003</v>
+        <v>2.173957321675163</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.69101934181201</v>
+        <v>1.575948319057379</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1.367526664990493</v>
+        <v>1.31591182167204</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.4328753258931244</v>
+        <v>0.3999548050495247</v>
       </c>
     </row>
     <row r="15">
@@ -817,16 +817,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.917093560782545</v>
+        <v>3.833565999082099</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.470412357658034</v>
+        <v>3.420926366950425</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3.683728052018461</v>
+        <v>3.579394746571951</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.222860611428773</v>
+        <v>1.187732828728831</v>
       </c>
     </row>
     <row r="16">
